--- a/biology/Botanique/Crémant_de_Bordeaux/Crémant_de_Bordeaux.xlsx
+++ b/biology/Botanique/Crémant_de_Bordeaux/Crémant_de_Bordeaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cr%C3%A9mant_de_Bordeaux</t>
+          <t>Crémant_de_Bordeaux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le crémant de Bordeaux est un vin blanc ou rosé mousseux français d'appellation d'origine contrôlée, produit sur la même aire d'appellation que le bordeaux, soit tout le vignoble de Bordeaux. Il est issu pour 70 % au moins de cépages principaux, avec une seconde fermentation en bouteilles.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cr%C3%A9mant_de_Bordeaux</t>
+          <t>Crémant_de_Bordeaux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Types de vin</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme pour le champagne, les crémants peuvent être bruts, demi-secs ou doux, selon la quantité de sucre rajoutée. Il est né à Bordeaux par décret du 1er avril 1990. Comme pour les autres AOC crémant, les décrets ont été remplacés en 2009 par la publication au Journal officiel d'un cahier des charges qui entoure les conditions de production et d'élaboration de ce vin effervescent.
 À l'occasion de cette refonte des AOC, il a été créé une section crémant au sein de l'ODG (Organisme de gestion) Bordeaux qui a été mis au point et présidée par Lionel Lateyron, président également à l'époque du syndicat des élaborateurs de crémant. Aujourd'hui Mr Dominique Furlan lui a succédé tandis que Lionel Lateyron est devenu Président du Syndicat des Négociants en vins du Libournais. 
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cr%C3%A9mant_de_Bordeaux</t>
+          <t>Crémant_de_Bordeaux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Production : un peu plus de 200 hectares, sur toute la Gironde.
 La production se base sur l'utilisation de galeries naturelles des rives de la Garonne et de la Dordogne, jugées prédestinées, grâce à leur taux élevé en humidité, à la prise de mousse et l'élevage de ces vins.
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cr%C3%A9mant_de_Bordeaux</t>
+          <t>Crémant_de_Bordeaux</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Méthodes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignes présentent une densité minimale à la plantation de 4000 pieds par hectare. ces vignes ne peuvent présenter un écartement entre les rangs supérieurs à 2.50 mètres et un écartement entre les pieds sur un même rang inférieur à 0.85 mètres. 
 Seules sont autorisées la taille à coursons (cots) et la taille à longs bois (astes)
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cr%C3%A9mant_de_Bordeaux</t>
+          <t>Crémant_de_Bordeaux</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +627,9 @@
           <t>Vinification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les raisins destinés à l'élaboration de vins blancs sont versés entiers dans le pressoir.
 Pour les vins blancs, dans la cuvée (vin de base ou assemblage de vins de base), la proportion des cépages principaux est supérieure ou égale à 70%.
@@ -627,7 +647,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cr%C3%A9mant_de_Bordeaux</t>
+          <t>Crémant_de_Bordeaux</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -645,7 +665,9 @@
           <t>Encépagement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Encépagement pour les crémants rosés : cabernet sauvignon, cabernet franc, merlot noir, petit verdot, carménère et malbec (ou côt).
 Encépagement pour les crémants blancs :
@@ -660,7 +682,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cr%C3%A9mant_de_Bordeaux</t>
+          <t>Crémant_de_Bordeaux</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -678,7 +700,9 @@
           <t>Gastronomie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les crémants blancs sont, grâce aux cépages sémillon et sauvignon, des vins frais, nerveux et désaltérants.
 Quant aux crémants rosés, ils sont fruités, élégants et très fins. Destiné à être bu jeune, le crémant est un excellent vin d'apéritif ou un vin de base de cocktail.
@@ -693,7 +717,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cr%C3%A9mant_de_Bordeaux</t>
+          <t>Crémant_de_Bordeaux</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -711,7 +735,9 @@
           <t>Les principaux producteurs de l’appellation</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ballarin
